--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H2">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I2">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J2">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.88317284965847</v>
+        <v>4.06343</v>
       </c>
       <c r="N2">
-        <v>3.88317284965847</v>
+        <v>12.19029</v>
       </c>
       <c r="O2">
-        <v>0.243934673404221</v>
+        <v>0.2221677315717048</v>
       </c>
       <c r="P2">
-        <v>0.243934673404221</v>
+        <v>0.2970569689564089</v>
       </c>
       <c r="Q2">
-        <v>147.9675910474358</v>
+        <v>155.99193666861</v>
       </c>
       <c r="R2">
-        <v>147.9675910474358</v>
+        <v>935.9516200116602</v>
       </c>
       <c r="S2">
-        <v>0.1103297091370374</v>
+        <v>0.09891563793621042</v>
       </c>
       <c r="T2">
-        <v>0.1103297091370374</v>
+        <v>0.1114353429289662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H3">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I3">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J3">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>12.0357319762402</v>
+        <v>0.115697</v>
       </c>
       <c r="N3">
-        <v>12.0357319762402</v>
+        <v>0.347091</v>
       </c>
       <c r="O3">
-        <v>0.756065326595779</v>
+        <v>0.006325724828445804</v>
       </c>
       <c r="P3">
-        <v>0.756065326595779</v>
+        <v>0.008458026873195707</v>
       </c>
       <c r="Q3">
-        <v>458.6193651342325</v>
+        <v>4.441518396219</v>
       </c>
       <c r="R3">
-        <v>458.6193651342325</v>
+        <v>26.649110377314</v>
       </c>
       <c r="S3">
-        <v>0.3419623229768699</v>
+        <v>0.002816399584170451</v>
       </c>
       <c r="T3">
-        <v>0.3419623229768699</v>
+        <v>0.003172869932754497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.75215847000328</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H4">
-        <v>2.75215847000328</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I4">
-        <v>0.03266724375416898</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J4">
-        <v>0.03266724375416898</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.88317284965847</v>
+        <v>0.2779093333333333</v>
       </c>
       <c r="N4">
-        <v>3.88317284965847</v>
+        <v>0.833728</v>
       </c>
       <c r="O4">
-        <v>0.243934673404221</v>
+        <v>0.01519467203059274</v>
       </c>
       <c r="P4">
-        <v>0.243934673404221</v>
+        <v>0.02031655626027673</v>
       </c>
       <c r="Q4">
-        <v>10.68710704867433</v>
+        <v>10.668724482752</v>
       </c>
       <c r="R4">
-        <v>10.68710704867433</v>
+        <v>64.01234689651201</v>
       </c>
       <c r="S4">
-        <v>0.007968673436189289</v>
+        <v>0.006765116907414084</v>
       </c>
       <c r="T4">
-        <v>0.007968673436189289</v>
+        <v>0.007621374519349512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.75215847000328</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H5">
-        <v>2.75215847000328</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I5">
-        <v>0.03266724375416898</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J5">
-        <v>0.03266724375416898</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.0357319762402</v>
+        <v>13.8328835</v>
       </c>
       <c r="N5">
-        <v>12.0357319762402</v>
+        <v>27.665767</v>
       </c>
       <c r="O5">
-        <v>0.756065326595779</v>
+        <v>0.7563118715692566</v>
       </c>
       <c r="P5">
-        <v>0.756065326595779</v>
+        <v>0.6741684479101187</v>
       </c>
       <c r="Q5">
-        <v>33.12424170109878</v>
+        <v>531.0337047460546</v>
       </c>
       <c r="R5">
-        <v>33.12424170109878</v>
+        <v>2124.134818984218</v>
       </c>
       <c r="S5">
-        <v>0.02469857031797969</v>
+        <v>0.3367323900989506</v>
       </c>
       <c r="T5">
-        <v>0.02469857031797969</v>
+        <v>0.2529016317936552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,119 +785,119 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3261510507431</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H6">
-        <v>2.3261510507431</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I6">
-        <v>0.02761067148271828</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J6">
-        <v>0.02761067148271828</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.88317284965847</v>
+        <v>4.06343</v>
       </c>
       <c r="N6">
-        <v>3.88317284965847</v>
+        <v>12.19029</v>
       </c>
       <c r="O6">
-        <v>0.243934673404221</v>
+        <v>0.2221677315717048</v>
       </c>
       <c r="P6">
-        <v>0.243934673404221</v>
+        <v>0.2970569689564089</v>
       </c>
       <c r="Q6">
-        <v>9.032846604450127</v>
+        <v>12.8191870611</v>
       </c>
       <c r="R6">
-        <v>9.032846604450127</v>
+        <v>115.3726835499</v>
       </c>
       <c r="S6">
-        <v>0.006735200130608123</v>
+        <v>0.008128741094266329</v>
       </c>
       <c r="T6">
-        <v>0.006735200130608123</v>
+        <v>0.01373638795118282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3261510507431</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H7">
-        <v>2.3261510507431</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I7">
-        <v>0.02761067148271828</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J7">
-        <v>0.02761067148271828</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>12.0357319762402</v>
+        <v>0.115697</v>
       </c>
       <c r="N7">
-        <v>12.0357319762402</v>
+        <v>0.347091</v>
       </c>
       <c r="O7">
-        <v>0.756065326595779</v>
+        <v>0.006325724828445804</v>
       </c>
       <c r="P7">
-        <v>0.756065326595779</v>
+        <v>0.008458026873195707</v>
       </c>
       <c r="Q7">
-        <v>27.99693058299347</v>
+        <v>0.36499742469</v>
       </c>
       <c r="R7">
-        <v>27.99693058299347</v>
+        <v>3.28497682221</v>
       </c>
       <c r="S7">
-        <v>0.02087547135211016</v>
+        <v>0.0002314475599144888</v>
       </c>
       <c r="T7">
-        <v>0.02087547135211016</v>
+        <v>0.0003911126503441669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.85670622736209</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H8">
-        <v>6.85670622736209</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.08138691725832882</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J8">
-        <v>0.08138691725832882</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.88317284965847</v>
+        <v>0.2779093333333333</v>
       </c>
       <c r="N8">
-        <v>3.88317284965847</v>
+        <v>0.833728</v>
       </c>
       <c r="O8">
-        <v>0.243934673404221</v>
+        <v>0.01519467203059274</v>
       </c>
       <c r="P8">
-        <v>0.243934673404221</v>
+        <v>0.02031655626027673</v>
       </c>
       <c r="Q8">
-        <v>26.62577546017662</v>
+        <v>0.8767400275200001</v>
       </c>
       <c r="R8">
-        <v>26.62577546017662</v>
+        <v>7.890660247680001</v>
       </c>
       <c r="S8">
-        <v>0.0198530910807868</v>
+        <v>0.0005559473199604339</v>
       </c>
       <c r="T8">
-        <v>0.0198530910807868</v>
+        <v>0.0009394699595960185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.85670622736209</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H9">
-        <v>6.85670622736209</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.08138691725832882</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J9">
-        <v>0.08138691725832882</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0357319762402</v>
+        <v>13.8328835</v>
       </c>
       <c r="N9">
-        <v>12.0357319762402</v>
+        <v>27.665767</v>
       </c>
       <c r="O9">
-        <v>0.756065326595779</v>
+        <v>0.7563118715692566</v>
       </c>
       <c r="P9">
-        <v>0.756065326595779</v>
+        <v>0.6741684479101187</v>
       </c>
       <c r="Q9">
-        <v>82.52547839234721</v>
+        <v>43.63956587929501</v>
       </c>
       <c r="R9">
-        <v>82.52547839234721</v>
+        <v>261.83739527577</v>
       </c>
       <c r="S9">
-        <v>0.06153382617754202</v>
+        <v>0.0276721706928995</v>
       </c>
       <c r="T9">
-        <v>0.06153382617754202</v>
+        <v>0.03117462410484338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.712391827467</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H10">
-        <v>18.712391827467</v>
+        <v>8.890324</v>
       </c>
       <c r="I10">
-        <v>0.2221101261842148</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J10">
-        <v>0.2221101261842148</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.88317284965847</v>
+        <v>4.06343</v>
       </c>
       <c r="N10">
-        <v>3.88317284965847</v>
+        <v>12.19029</v>
       </c>
       <c r="O10">
-        <v>0.243934673404221</v>
+        <v>0.2221677315717048</v>
       </c>
       <c r="P10">
-        <v>0.243934673404221</v>
+        <v>0.2970569689564089</v>
       </c>
       <c r="Q10">
-        <v>72.66345189659089</v>
+        <v>12.04173641710667</v>
       </c>
       <c r="R10">
-        <v>72.66345189659089</v>
+        <v>108.37562775396</v>
       </c>
       <c r="S10">
-        <v>0.05418036109051675</v>
+        <v>0.007635753904948401</v>
       </c>
       <c r="T10">
-        <v>0.05418036109051675</v>
+        <v>0.01290331143799299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.712391827467</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H11">
-        <v>18.712391827467</v>
+        <v>8.890324</v>
       </c>
       <c r="I11">
-        <v>0.2221101261842148</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J11">
-        <v>0.2221101261842148</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>12.0357319762402</v>
+        <v>0.115697</v>
       </c>
       <c r="N11">
-        <v>12.0357319762402</v>
+        <v>0.347091</v>
       </c>
       <c r="O11">
-        <v>0.756065326595779</v>
+        <v>0.006325724828445804</v>
       </c>
       <c r="P11">
-        <v>0.756065326595779</v>
+        <v>0.008458026873195707</v>
       </c>
       <c r="Q11">
-        <v>225.2173326697803</v>
+        <v>0.3428612719426666</v>
       </c>
       <c r="R11">
-        <v>225.2173326697803</v>
+        <v>3.085751447484</v>
       </c>
       <c r="S11">
-        <v>0.167929765093698</v>
+        <v>0.0002174108621388372</v>
       </c>
       <c r="T11">
-        <v>0.167929765093698</v>
+        <v>0.0003673926764928827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4960361214038</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H12">
-        <v>15.4960361214038</v>
+        <v>8.890324</v>
       </c>
       <c r="I12">
-        <v>0.1839330092066617</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J12">
-        <v>0.1839330092066617</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.88317284965847</v>
+        <v>0.2779093333333333</v>
       </c>
       <c r="N12">
-        <v>3.88317284965847</v>
+        <v>0.833728</v>
       </c>
       <c r="O12">
-        <v>0.243934673404221</v>
+        <v>0.01519467203059274</v>
       </c>
       <c r="P12">
-        <v>0.243934673404221</v>
+        <v>0.02031655626027673</v>
       </c>
       <c r="Q12">
-        <v>60.17378674396218</v>
+        <v>0.8235680053191111</v>
       </c>
       <c r="R12">
-        <v>60.17378674396218</v>
+        <v>7.412112047872</v>
       </c>
       <c r="S12">
-        <v>0.04486763852908259</v>
+        <v>0.0005222305483843961</v>
       </c>
       <c r="T12">
-        <v>0.04486763852908259</v>
+        <v>0.0008824935287491125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4960361214038</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H13">
-        <v>15.4960361214038</v>
+        <v>8.890324</v>
       </c>
       <c r="I13">
-        <v>0.1839330092066617</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J13">
-        <v>0.1839330092066617</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0357319762402</v>
+        <v>13.8328835</v>
       </c>
       <c r="N13">
-        <v>12.0357319762402</v>
+        <v>27.665767</v>
       </c>
       <c r="O13">
-        <v>0.756065326595779</v>
+        <v>0.7563118715692566</v>
       </c>
       <c r="P13">
-        <v>0.756065326595779</v>
+        <v>0.6741684479101187</v>
       </c>
       <c r="Q13">
-        <v>186.5061374513529</v>
+        <v>40.99293872308466</v>
       </c>
       <c r="R13">
-        <v>186.5061374513529</v>
+        <v>245.957632338508</v>
       </c>
       <c r="S13">
-        <v>0.1390653706775791</v>
+        <v>0.02599392488656659</v>
       </c>
       <c r="T13">
-        <v>0.1390653706775791</v>
+        <v>0.0292839635293294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.153525333333334</v>
+      </c>
+      <c r="H14">
+        <v>21.460576</v>
+      </c>
+      <c r="I14">
+        <v>0.08296496373632466</v>
+      </c>
+      <c r="J14">
+        <v>0.1048540524021472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.06343</v>
+      </c>
+      <c r="N14">
+        <v>12.19029</v>
+      </c>
+      <c r="O14">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P14">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q14">
+        <v>29.06784944522667</v>
+      </c>
+      <c r="R14">
+        <v>261.61064500704</v>
+      </c>
+      <c r="S14">
+        <v>0.018432137793228</v>
+      </c>
+      <c r="T14">
+        <v>0.03114762698937832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.153525333333334</v>
+      </c>
+      <c r="H15">
+        <v>21.460576</v>
+      </c>
+      <c r="I15">
+        <v>0.08296496373632466</v>
+      </c>
+      <c r="J15">
+        <v>0.1048540524021472</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.115697</v>
+      </c>
+      <c r="N15">
+        <v>0.347091</v>
+      </c>
+      <c r="O15">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P15">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q15">
+        <v>0.8276414204906667</v>
+      </c>
+      <c r="R15">
+        <v>7.448772784416</v>
+      </c>
+      <c r="S15">
+        <v>0.0005248135309979746</v>
+      </c>
+      <c r="T15">
+        <v>0.0008868583929808323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.153525333333334</v>
+      </c>
+      <c r="H16">
+        <v>21.460576</v>
+      </c>
+      <c r="I16">
+        <v>0.08296496373632466</v>
+      </c>
+      <c r="J16">
+        <v>0.1048540524021472</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.833728</v>
+      </c>
+      <c r="O16">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P16">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q16">
+        <v>1.988031456369778</v>
+      </c>
+      <c r="R16">
+        <v>17.892283107328</v>
+      </c>
+      <c r="S16">
+        <v>0.001260625414003473</v>
+      </c>
+      <c r="T16">
+        <v>0.002130273254746229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.153525333333334</v>
+      </c>
+      <c r="H17">
+        <v>21.460576</v>
+      </c>
+      <c r="I17">
+        <v>0.08296496373632466</v>
+      </c>
+      <c r="J17">
+        <v>0.1048540524021472</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.8328835</v>
+      </c>
+      <c r="N17">
+        <v>27.665767</v>
+      </c>
+      <c r="O17">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P17">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q17">
+        <v>98.95388255029866</v>
+      </c>
+      <c r="R17">
+        <v>593.7232953017919</v>
+      </c>
+      <c r="S17">
+        <v>0.06274738699809521</v>
+      </c>
+      <c r="T17">
+        <v>0.07068929376504185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.952291</v>
+      </c>
+      <c r="H18">
+        <v>56.85687299999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2198043708894773</v>
+      </c>
+      <c r="J18">
+        <v>0.2777965298305241</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.06343</v>
+      </c>
+      <c r="N18">
+        <v>12.19029</v>
+      </c>
+      <c r="O18">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P18">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q18">
+        <v>77.01130781813001</v>
+      </c>
+      <c r="R18">
+        <v>693.10177036317</v>
+      </c>
+      <c r="S18">
+        <v>0.04883343847006085</v>
+      </c>
+      <c r="T18">
+        <v>0.08252139513806411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.952291</v>
+      </c>
+      <c r="H19">
+        <v>56.85687299999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2198043708894773</v>
+      </c>
+      <c r="J19">
+        <v>0.2777965298305241</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.115697</v>
+      </c>
+      <c r="N19">
+        <v>0.347091</v>
+      </c>
+      <c r="O19">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P19">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q19">
+        <v>2.192723211827</v>
+      </c>
+      <c r="R19">
+        <v>19.734508906443</v>
+      </c>
+      <c r="S19">
+        <v>0.001390421966336477</v>
+      </c>
+      <c r="T19">
+        <v>0.002349610514587086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.952291</v>
+      </c>
+      <c r="H20">
+        <v>56.85687299999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2198043708894773</v>
+      </c>
+      <c r="J20">
+        <v>0.2777965298305241</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.833728</v>
+      </c>
+      <c r="O20">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P20">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q20">
+        <v>5.267018556949333</v>
+      </c>
+      <c r="R20">
+        <v>47.403167012544</v>
+      </c>
+      <c r="S20">
+        <v>0.003339855326556373</v>
+      </c>
+      <c r="T20">
+        <v>0.005643868827211487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.952291</v>
+      </c>
+      <c r="H21">
+        <v>56.85687299999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2198043708894773</v>
+      </c>
+      <c r="J21">
+        <v>0.2777965298305241</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.8328835</v>
+      </c>
+      <c r="N21">
+        <v>27.665767</v>
+      </c>
+      <c r="O21">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P21">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q21">
+        <v>262.1648334610985</v>
+      </c>
+      <c r="R21">
+        <v>1572.989000766591</v>
+      </c>
+      <c r="S21">
+        <v>0.1662406551265236</v>
+      </c>
+      <c r="T21">
+        <v>0.1872816553506614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.6101945</v>
+      </c>
+      <c r="H22">
+        <v>31.220389</v>
+      </c>
+      <c r="I22">
+        <v>0.1810434939783733</v>
+      </c>
+      <c r="J22">
+        <v>0.1525394427540724</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.06343</v>
+      </c>
+      <c r="N22">
+        <v>12.19029</v>
+      </c>
+      <c r="O22">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P22">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q22">
+        <v>63.430932637135</v>
+      </c>
+      <c r="R22">
+        <v>380.58559582281</v>
+      </c>
+      <c r="S22">
+        <v>0.04022202237299081</v>
+      </c>
+      <c r="T22">
+        <v>0.0453129045108244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.6101945</v>
+      </c>
+      <c r="H23">
+        <v>31.220389</v>
+      </c>
+      <c r="I23">
+        <v>0.1810434939783733</v>
+      </c>
+      <c r="J23">
+        <v>0.1525394427540724</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.115697</v>
+      </c>
+      <c r="N23">
+        <v>0.347091</v>
+      </c>
+      <c r="O23">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P23">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q23">
+        <v>1.8060526730665</v>
+      </c>
+      <c r="R23">
+        <v>10.836316038399</v>
+      </c>
+      <c r="S23">
+        <v>0.001145231324887575</v>
+      </c>
+      <c r="T23">
+        <v>0.001290182706036243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.6101945</v>
+      </c>
+      <c r="H24">
+        <v>31.220389</v>
+      </c>
+      <c r="I24">
+        <v>0.1810434939783733</v>
+      </c>
+      <c r="J24">
+        <v>0.1525394427540724</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.833728</v>
+      </c>
+      <c r="O24">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P24">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q24">
+        <v>4.338218746698667</v>
+      </c>
+      <c r="R24">
+        <v>26.029312480192</v>
+      </c>
+      <c r="S24">
+        <v>0.002750896514273974</v>
+      </c>
+      <c r="T24">
+        <v>0.003099076170624375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.6101945</v>
+      </c>
+      <c r="H25">
+        <v>31.220389</v>
+      </c>
+      <c r="I25">
+        <v>0.1810434939783733</v>
+      </c>
+      <c r="J25">
+        <v>0.1525394427540724</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.8328835</v>
+      </c>
+      <c r="N25">
+        <v>27.665767</v>
+      </c>
+      <c r="O25">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P25">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q25">
+        <v>215.9340019308407</v>
+      </c>
+      <c r="R25">
+        <v>863.7360077233629</v>
+      </c>
+      <c r="S25">
+        <v>0.136925343766221</v>
+      </c>
+      <c r="T25">
+        <v>0.1028372793665874</v>
       </c>
     </row>
   </sheetData>
